--- a/discussion3/cluster_analysis_sorted.xlsx
+++ b/discussion3/cluster_analysis_sorted.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnorthflorida-my.sharepoint.com/personal/n01480000_unf_edu/Documents/9_fall_2024/cap6768_data-analytics/code/discussion3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86657E96-4894-47D2-B7C0-55688251CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{86657E96-4894-47D2-B7C0-55688251CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B328FF-3461-4304-9F50-FF8C4F1614FA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16410" windowWidth="29040" windowHeight="15720" xr2:uid="{8E5198D0-14A1-406D-B8C1-2364BF4F5CC2}"/>
+    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{8E5198D0-14A1-406D-B8C1-2364BF4F5CC2}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_analysis_sorted" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="GetColor">cluster_analysis_sorted!$M:$M</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
   <si>
     <t>Cluster Method</t>
   </si>
@@ -70,370 +86,25 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>27.34365533333333</t>
-  </si>
-  <si>
-    <t>1.4729742992220054</t>
-  </si>
-  <si>
-    <t>1.006594843418376</t>
-  </si>
-  <si>
-    <t>2.4078877171803743</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>1.833814156952843</t>
-  </si>
-  <si>
-    <t>3.8583389061202746</t>
-  </si>
-  <si>
-    <t>74.49990773949592</t>
-  </si>
-  <si>
-    <t>5.4173274062993855</t>
-  </si>
-  <si>
-    <t>38.25724373333333</t>
-  </si>
-  <si>
-    <t>3.3417353532084055</t>
-  </si>
-  <si>
-    <t>2.8845378954761483</t>
-  </si>
-  <si>
-    <t>5.680405781903312</t>
-  </si>
-  <si>
-    <t>32.97642660000001</t>
-  </si>
-  <si>
-    <t>1.1851642684376886</t>
-  </si>
-  <si>
-    <t>2.380744925734344</t>
-  </si>
-  <si>
-    <t>17.92614990599999</t>
-  </si>
-  <si>
-    <t>3.8569940362508697</t>
-  </si>
-  <si>
-    <t>36.229081111111114</t>
-  </si>
-  <si>
-    <t>2.0135864862903725</t>
-  </si>
-  <si>
-    <t>2.2583030258751786</t>
-  </si>
-  <si>
-    <t>46.12219893468003</t>
-  </si>
-  <si>
-    <t>4.051770801229277</t>
-  </si>
-  <si>
-    <t>39.06368636363636</t>
-  </si>
-  <si>
-    <t>2.966978242948915</t>
-  </si>
-  <si>
-    <t>1.9918382454203813</t>
-  </si>
-  <si>
-    <t>56.76339899160004</t>
-  </si>
-  <si>
-    <t>4.7723675176590765</t>
-  </si>
-  <si>
-    <t>40.55369723076923</t>
-  </si>
-  <si>
-    <t>1.8428584046888499</t>
-  </si>
-  <si>
-    <t>47.974977763327956</t>
-  </si>
-  <si>
-    <t>40.502995428571424</t>
-  </si>
-  <si>
-    <t>0.8653665210520184</t>
-  </si>
-  <si>
-    <t>3.2930980916792096</t>
-  </si>
-  <si>
-    <t>20.627006090479977</t>
-  </si>
-  <si>
-    <t>4.406867089052405</t>
-  </si>
-  <si>
-    <t>45.71378683333334</t>
-  </si>
-  <si>
-    <t>1.4686211625171215</t>
-  </si>
-  <si>
-    <t>2.9779553309497313</t>
-  </si>
-  <si>
-    <t>27.648605104728002</t>
   </si>
   <si>
     <t>centroid</t>
   </si>
   <si>
-    <t>32.079438230769235</t>
-  </si>
-  <si>
-    <t>3.1166350405462615</t>
-  </si>
-  <si>
-    <t>3.2129166947054744</t>
-  </si>
-  <si>
-    <t>102.92305698906108</t>
-  </si>
-  <si>
-    <t>32.03609368421053</t>
-  </si>
-  <si>
-    <t>2.2660695593651528</t>
-  </si>
-  <si>
-    <t>2.2600961850365575</t>
-  </si>
-  <si>
-    <t>49.220748971199974</t>
-  </si>
-  <si>
-    <t>4.183391212342372</t>
-  </si>
-  <si>
-    <t>39.235123333333334</t>
-  </si>
-  <si>
-    <t>2.474491655735286</t>
-  </si>
-  <si>
-    <t>2.822407429218167</t>
-  </si>
-  <si>
-    <t>70.02588685362598</t>
-  </si>
-  <si>
-    <t>4.815884632093224</t>
-  </si>
-  <si>
-    <t>2.4525617793678536</t>
-  </si>
-  <si>
-    <t>2.6596076651112757</t>
-  </si>
-  <si>
-    <t>72.53760013774203</t>
-  </si>
-  <si>
-    <t>4.990009684139187</t>
-  </si>
-  <si>
-    <t>40.50287465217391</t>
-  </si>
-  <si>
-    <t>1.683026869169293</t>
-  </si>
-  <si>
-    <t>1.953540855308613</t>
-  </si>
-  <si>
-    <t>45.71396355423801</t>
-  </si>
-  <si>
-    <t>3.4102090949484065</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
-    <t>33.44152561111111</t>
-  </si>
-  <si>
-    <t>3.5897947057898607</t>
-  </si>
-  <si>
-    <t>1.1245558279726489</t>
-  </si>
-  <si>
-    <t>49.40682547125001</t>
-  </si>
-  <si>
-    <t>4.663196748482075</t>
-  </si>
-  <si>
-    <t>1.737900916540616</t>
-  </si>
-  <si>
-    <t>2.4137294303661054</t>
-  </si>
-  <si>
-    <t>48.109798407931976</t>
-  </si>
-  <si>
-    <t>3.9618688628938465</t>
-  </si>
-  <si>
-    <t>37.366925083333335</t>
-  </si>
-  <si>
-    <t>3.845907254893883</t>
-  </si>
-  <si>
-    <t>2.9584263635129306</t>
-  </si>
-  <si>
-    <t>70.92428348459994</t>
-  </si>
-  <si>
-    <t>6.515575231738505</t>
-  </si>
-  <si>
-    <t>37.203568866666664</t>
-  </si>
-  <si>
-    <t>2.190772883259615</t>
-  </si>
-  <si>
-    <t>2.8734120520435673</t>
-  </si>
-  <si>
-    <t>77.82827838496195</t>
-  </si>
-  <si>
-    <t>4.732138237561459</t>
-  </si>
-  <si>
-    <t>41.842700111111114</t>
-  </si>
-  <si>
-    <t>1.3403040685097831</t>
-  </si>
-  <si>
-    <t>3.313841566485028</t>
-  </si>
-  <si>
-    <t>60.341678790750066</t>
-  </si>
-  <si>
-    <t>4.480135562798067</t>
-  </si>
-  <si>
-    <t>41.11249218181819</t>
-  </si>
-  <si>
-    <t>1.3883565253744397</t>
-  </si>
-  <si>
-    <t>2.417233029168751</t>
-  </si>
-  <si>
-    <t>31.911458940927993</t>
-  </si>
-  <si>
-    <t>3.6915632404562633</t>
-  </si>
-  <si>
     <t>ward</t>
-  </si>
-  <si>
-    <t>32.198540733333324</t>
-  </si>
-  <si>
-    <t>2.461221846635298</t>
-  </si>
-  <si>
-    <t>1.1637050012561005</t>
-  </si>
-  <si>
-    <t>29.012740537099997</t>
-  </si>
-  <si>
-    <t>3.4744572041701787</t>
-  </si>
-  <si>
-    <t>32.87005866666667</t>
-  </si>
-  <si>
-    <t>1.7970523541598766</t>
-  </si>
-  <si>
-    <t>3.078137475854313</t>
-  </si>
-  <si>
-    <t>58.06348702348795</t>
-  </si>
-  <si>
-    <t>4.634087151303849</t>
-  </si>
-  <si>
-    <t>39.040282250000004</t>
-  </si>
-  <si>
-    <t>2.529358116105104</t>
-  </si>
-  <si>
-    <t>3.2672305442039367</t>
-  </si>
-  <si>
-    <t>107.7472213784469</t>
-  </si>
-  <si>
-    <t>5.289022869232446</t>
-  </si>
-  <si>
-    <t>40.39308909090909</t>
-  </si>
-  <si>
-    <t>2.2071319698250917</t>
-  </si>
-  <si>
-    <t>1.716360648558198</t>
-  </si>
-  <si>
-    <t>44.955786155069994</t>
-  </si>
-  <si>
-    <t>3.655389436885929</t>
-  </si>
-  <si>
-    <t>40.93812857142857</t>
-  </si>
-  <si>
-    <t>2.028198746752036</t>
-  </si>
-  <si>
-    <t>1.8832570494379226</t>
-  </si>
-  <si>
-    <t>30.958218114250013</t>
-  </si>
-  <si>
-    <t>3.9507593166790222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -911,9 +582,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1291,9 +965,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3374BBAE-CFCE-45A1-988C-BA67295D1575}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1343,40 +1026,40 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>19.696151</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>19.696151</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>19.696151</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0</v>
       </c>
       <c r="N2" t="s">
@@ -1387,436 +1070,436 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>25.775666999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>29.674150000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-82.482119999999995</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-80.106623999999996</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2">
+        <v>27.343655333333299</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-81.120159833333304</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.4729742992220001</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.00659484341837</v>
+      </c>
+      <c r="L3" s="3">
+        <v>9.2608307725679992</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2.4078877171803699</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3">
-        <v>-81.120159833333304</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>9.2608307725679992</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>24</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>29.457650000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>35.821827999999996</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-98.505354999999994</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>-86.799222999999998</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>31.796563500000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>-93.183926666666594</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
+      <c r="J4" s="4">
+        <v>1.8338141569528399</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.8583389061202702</v>
+      </c>
+      <c r="L4" s="4">
+        <v>74.499907739495896</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5.4173274062993801</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>45</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>30.457000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>43.596552000000003</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-89.387518999999998</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-77.374397999999999</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="2">
+        <v>38.257243733333297</v>
+      </c>
+      <c r="I5" s="1">
         <v>-83.8136479333333</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5">
+      <c r="J5" s="4">
+        <v>3.3417353532084002</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.8845378954761398</v>
+      </c>
+      <c r="L5" s="3">
         <v>157.847028061792</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
+      <c r="M5" s="4">
+        <v>5.6804057819033096</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>31.849250000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>35.112650000000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>-111.930639</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>-106.437549</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="2">
+        <v>32.976426600000003</v>
+      </c>
+      <c r="I6" s="1">
         <v>-108.5259106</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>33</v>
+      <c r="J6" s="4">
+        <v>1.18516426843768</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.3807449257343398</v>
+      </c>
+      <c r="L6" s="4">
+        <v>17.9261499059999</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3.8569940362508599</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>32.814950000000003</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>39.438391000000003</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>-122.29729</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>-115.33381</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="2">
+        <v>36.2290811111111</v>
+      </c>
+      <c r="I7" s="1">
         <v>-119.46063311111099</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>38</v>
+      <c r="J7" s="4">
+        <v>2.0135864862903698</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2.2583030258751702</v>
+      </c>
+      <c r="L7" s="4">
+        <v>46.12219893468</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4.0517708012292699</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>35.46705</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>44.961849999999998</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>-97.513491000000002</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>-91.535123999999996</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="2">
+        <v>39.0636863636363</v>
+      </c>
+      <c r="I8" s="1">
         <v>-94.944265545454499</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>43</v>
+      <c r="J8" s="4">
+        <v>2.96697824294891</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.99183824542038</v>
+      </c>
+      <c r="L8" s="4">
+        <v>56.763398991599999</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.7723675176590703</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>36.923200000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>43.041058999999997</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>-78.859684000000001</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>-71.017892000000003</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="2">
+        <v>40.553697230769203</v>
+      </c>
+      <c r="I9" s="1">
         <v>-75.245139538461501</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="4">
+        <v>1.8428584046888401</v>
+      </c>
+      <c r="K9" s="3">
         <v>2.4401914165120999</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="4">
+        <v>47.9749777633279</v>
+      </c>
+      <c r="M9" s="3">
         <v>4.0330325288795104</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>38.863199999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>41.74004</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>-111.92992099999999</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>-104.759899</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="2">
+        <v>40.502995428571403</v>
+      </c>
+      <c r="I10" s="1">
         <v>-108.01002314285699</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>51</v>
+      <c r="J10" s="4">
+        <v>0.86536652105201795</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3.2930980916791999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>20.627006090479899</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4.4068670890524002</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>43.606650999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>47.6218</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>-123.112172</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>-116.2261</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="2">
+        <v>45.713786833333302</v>
+      </c>
+      <c r="I11" s="1">
         <v>-119.75064949999999</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11">
+      <c r="J11" s="4">
+        <v>1.4686211625171199</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.97795533094973</v>
+      </c>
+      <c r="L11" s="4">
+        <v>27.648605104727999</v>
+      </c>
+      <c r="M11" s="3">
         <v>4.6794399083382299</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>19.696151</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>19.696151</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>19.696151</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" t="s">
@@ -1825,438 +1508,438 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>26</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>25.775666999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>36.171550000000003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>-90.006990999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>-80.106623999999996</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="2">
+        <v>32.079438230769199</v>
+      </c>
+      <c r="I13" s="1">
         <v>-84.860527807692307</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13">
+      <c r="J13" s="4">
+        <v>3.1166350405462602</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3.2129166947054699</v>
+      </c>
+      <c r="L13" s="4">
+        <v>102.923056989061</v>
+      </c>
+      <c r="M13" s="3">
         <v>5.7207505273797699</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>29.457650000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>36.127749999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>-98.505354999999994</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>-91.126042999999996</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="2">
+        <v>32.036093684210499</v>
+      </c>
+      <c r="I14" s="1">
         <v>-95.831831789473597</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>65</v>
+      <c r="J14" s="4">
+        <v>2.2660695593651501</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2.26009618503655</v>
+      </c>
+      <c r="L14" s="4">
+        <v>49.220748971199903</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4.1833912123423698</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>31.849250000000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>35.112650000000002</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>-111.930639</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>-106.437549</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="2">
+        <v>32.976426600000003</v>
+      </c>
+      <c r="I15" s="1">
         <v>-108.5259106</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>33</v>
+      <c r="J15" s="4">
+        <v>1.18516426843768</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2.3807449257343398</v>
+      </c>
+      <c r="L15" s="4">
+        <v>17.9261499059999</v>
+      </c>
+      <c r="M15" s="4">
+        <v>3.8569940362508599</v>
       </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>32.814950000000003</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>39.438391000000003</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>-122.29729</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>-115.33381</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="2">
+        <v>36.2290811111111</v>
+      </c>
+      <c r="I16" s="1">
         <v>-119.46063311111099</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>38</v>
+      <c r="J16" s="4">
+        <v>2.0135864862903698</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2.2583030258751702</v>
+      </c>
+      <c r="L16" s="4">
+        <v>46.12219893468</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4.0517708012292699</v>
       </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>21</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>35.599826</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>43.041058999999997</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>-80.428414000000004</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>-71.017892000000003</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="2">
+        <v>39.235123333333298</v>
+      </c>
+      <c r="I17" s="1">
         <v>-76.799683761904703</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>70</v>
+      <c r="J17" s="4">
+        <v>2.4744916557352798</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2.8224074292181598</v>
+      </c>
+      <c r="L17" s="4">
+        <v>70.025886853625906</v>
+      </c>
+      <c r="M17" s="4">
+        <v>4.81588463209322</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>35.821827999999996</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>44.961849999999998</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>-96.688170999999997</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>-88.751909999999995</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>40.739915699999997</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>-92.811304499999906</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>74</v>
+      <c r="J18" s="4">
+        <v>2.45256177936785</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.6596076651112699</v>
+      </c>
+      <c r="L18" s="4">
+        <v>72.537600137742004</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4.9900096841391797</v>
       </c>
       <c r="N18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>23</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>36.973703</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>43.596552000000003</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>-88.264949000000001</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>-81.362487000000002</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="2">
+        <v>40.502874652173901</v>
+      </c>
+      <c r="I19" s="1">
         <v>-84.749485217391296</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>79</v>
+      <c r="J19" s="4">
+        <v>1.68302686916929</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.95354085530861</v>
+      </c>
+      <c r="L19" s="4">
+        <v>45.713963554237999</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3.4102090949483999</v>
       </c>
       <c r="N19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>38.863199999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>41.74004</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>-111.92992099999999</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>-104.759899</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="2">
+        <v>40.502995428571403</v>
+      </c>
+      <c r="I20" s="1">
         <v>-108.01002314285699</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>51</v>
+      <c r="J20" s="4">
+        <v>0.86536652105201795</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3.2930980916791999</v>
+      </c>
+      <c r="L20" s="4">
+        <v>20.627006090479899</v>
+      </c>
+      <c r="M20" s="4">
+        <v>4.4068670890524002</v>
       </c>
       <c r="N20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>43.606650999999999</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>47.6218</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>-123.112172</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>-116.2261</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="2">
+        <v>45.713786833333302</v>
+      </c>
+      <c r="I21" s="1">
         <v>-119.75064949999999</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21">
+      <c r="J21" s="4">
+        <v>1.4686211625171199</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2.97795533094973</v>
+      </c>
+      <c r="L21" s="4">
+        <v>27.648605104727999</v>
+      </c>
+      <c r="M21" s="3">
         <v>4.6794399083382299</v>
       </c>
       <c r="N21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>19.696151</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>19.696151</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>19.696151</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" t="s">
@@ -2265,438 +1948,438 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>6</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>25.775666999999999</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>29.674150000000001</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>-82.482119999999995</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>-80.106623999999996</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2">
+        <v>27.343655333333299</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-81.120159833333304</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1.4729742992220001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.00659484341837</v>
+      </c>
+      <c r="L23" s="3">
+        <v>9.2608307725679992</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2.4078877171803699</v>
+      </c>
+      <c r="N23" t="s">
         <v>16</v>
-      </c>
-      <c r="I23">
-        <v>-81.120159833333304</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23">
-        <v>9.2608307725679992</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>18</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>29.457650000000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>40.816400000000002</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>-98.505354999999994</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>-94.155683999999994</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="2">
+        <v>33.441525611111103</v>
+      </c>
+      <c r="I24" s="1">
         <v>-96.747681833333303</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>85</v>
+      <c r="J24" s="4">
+        <v>3.5897947057898598</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.12455582797264</v>
+      </c>
+      <c r="L24" s="4">
+        <v>49.406825471250002</v>
+      </c>
+      <c r="M24" s="4">
+        <v>4.6631967484820702</v>
       </c>
       <c r="N24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>16</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>30.065846000000001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>35.821827999999996</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>-92.639624999999995</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>-84.281398999999993</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>32.383222687500002</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>-89.020019875000003</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>89</v>
+      <c r="J25" s="4">
+        <v>1.7379009165406101</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2.4137294303661001</v>
+      </c>
+      <c r="L25" s="4">
+        <v>48.109798407931898</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3.9618688628938399</v>
       </c>
       <c r="N25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>12</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>31.849250000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>41.74004</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>-111.930639</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>-104.759899</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="2">
+        <v>37.3669250833333</v>
+      </c>
+      <c r="I26" s="1">
         <v>-108.22497625</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>94</v>
+      <c r="J26" s="4">
+        <v>3.8459072548938802</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2.9584263635129302</v>
+      </c>
+      <c r="L26" s="4">
+        <v>70.924283484599897</v>
+      </c>
+      <c r="M26" s="4">
+        <v>6.5155752317384996</v>
       </c>
       <c r="N26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>9</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>32.814950000000003</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>39.438391000000003</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>-122.29729</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>-115.33381</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="2">
+        <v>36.2290811111111</v>
+      </c>
+      <c r="I27" s="1">
         <v>-119.46063311111099</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>38</v>
+      <c r="J27" s="4">
+        <v>2.0135864862903698</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2.2583030258751702</v>
+      </c>
+      <c r="L27" s="4">
+        <v>46.12219893468</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4.0517708012292699</v>
       </c>
       <c r="N27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>30</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>33.762900000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>41.147067</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>-86.784829000000002</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>-76.244943000000006</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="2">
+        <v>37.2035688666666</v>
+      </c>
+      <c r="I28" s="1">
         <v>-82.201939199999899</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>99</v>
+      <c r="J28" s="4">
+        <v>2.1907728832596098</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2.8734120520435602</v>
+      </c>
+      <c r="L28" s="4">
+        <v>77.828278384961905</v>
+      </c>
+      <c r="M28" s="4">
+        <v>4.7321382375614496</v>
       </c>
       <c r="N28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>18</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>38.954099999999997</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>44.961849999999998</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>-93.625622000000007</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>-83.581648999999999</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="2">
+        <v>41.8427001111111</v>
+      </c>
+      <c r="I29" s="1">
         <v>-87.517179944444393</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>104</v>
+      <c r="J29" s="4">
+        <v>1.34030406850978</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3.3138415664850198</v>
+      </c>
+      <c r="L29" s="4">
+        <v>60.341678790750002</v>
+      </c>
+      <c r="M29" s="4">
+        <v>4.4801355627980604</v>
       </c>
       <c r="N29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>11</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>38.971649999999997</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>43.041058999999997</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>-78.859684000000001</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>-71.017892000000003</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="2">
+        <v>41.112492181818098</v>
+      </c>
+      <c r="I30" s="1">
         <v>-74.859647818181799</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>109</v>
+      <c r="J30" s="4">
+        <v>1.3883565253744301</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2.41723302916875</v>
+      </c>
+      <c r="L30" s="4">
+        <v>31.911458940927901</v>
+      </c>
+      <c r="M30" s="4">
+        <v>3.6915632404562602</v>
       </c>
       <c r="N30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>43.606650999999999</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>47.6218</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>-123.112172</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>-116.2261</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31">
+      <c r="H31" s="2">
+        <v>45.713786833333302</v>
+      </c>
+      <c r="I31" s="1">
         <v>-119.75064949999999</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31">
+      <c r="J31" s="4">
+        <v>1.4686211625171199</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2.97795533094973</v>
+      </c>
+      <c r="L31" s="4">
+        <v>27.648605104727999</v>
+      </c>
+      <c r="M31" s="3">
         <v>4.6794399083382299</v>
       </c>
       <c r="N31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>19.696151</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>19.696151</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>19.696151</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>-155.087501</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" t="s">
@@ -2705,401 +2388,1721 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>6</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>25.775666999999999</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>29.674150000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>-82.482119999999995</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>-80.106623999999996</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2">
+        <v>27.343655333333299</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-81.120159833333304</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.4729742992220001</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.00659484341837</v>
+      </c>
+      <c r="L33" s="3">
+        <v>9.2608307725679992</v>
+      </c>
+      <c r="M33" s="4">
+        <v>2.4078877171803699</v>
+      </c>
+      <c r="N33" t="s">
         <v>16</v>
-      </c>
-      <c r="I33">
-        <v>-81.120159833333304</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33">
-        <v>9.2608307725679992</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>15</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>29.457650000000001</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>36.127749999999999</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>-98.505354999999994</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>-94.155683999999994</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="2">
+        <v>32.198540733333303</v>
+      </c>
+      <c r="I34" s="1">
         <v>-96.861647733333299</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>115</v>
+      <c r="J34" s="4">
+        <v>2.46122184663529</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.1637050012561001</v>
+      </c>
+      <c r="L34" s="4">
+        <v>29.012740537099901</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3.4744572041701698</v>
       </c>
       <c r="N34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>21</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>30.065846000000001</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>35.974550000000001</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>-92.639624999999995</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>-82.812853000000004</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="2">
+        <v>32.870058666666601</v>
+      </c>
+      <c r="I35" s="1">
         <v>-87.777063999999996</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>120</v>
+      <c r="J35" s="4">
+        <v>1.79705235415987</v>
+      </c>
+      <c r="K35" s="4">
+        <v>3.0781374758543101</v>
+      </c>
+      <c r="L35" s="4">
+        <v>58.063487023487902</v>
+      </c>
+      <c r="M35" s="4">
+        <v>4.6340871513038397</v>
       </c>
       <c r="N35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>12</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>31.849250000000001</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>41.74004</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>-111.930639</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>-104.759899</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="2">
+        <v>37.3669250833333</v>
+      </c>
+      <c r="I36" s="1">
         <v>-108.22497625</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>94</v>
+      <c r="J36" s="4">
+        <v>3.8459072548938802</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2.9584263635129302</v>
+      </c>
+      <c r="L36" s="4">
+        <v>70.924283484599897</v>
+      </c>
+      <c r="M36" s="4">
+        <v>6.5155752317384996</v>
       </c>
       <c r="N36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1">
         <v>7</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>32.814950000000003</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>39.438391000000003</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>-122.29729</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>-115.33381</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37">
+      <c r="H37" s="2">
+        <v>36.2290811111111</v>
+      </c>
+      <c r="I37" s="1">
         <v>-119.46063311111099</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>38</v>
+      <c r="J37" s="4">
+        <v>2.0135864862903698</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2.2583030258751702</v>
+      </c>
+      <c r="L37" s="4">
+        <v>46.12219893468</v>
+      </c>
+      <c r="M37" s="4">
+        <v>4.0517708012292699</v>
       </c>
       <c r="N37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>28</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>34.039236000000002</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>43.041058999999997</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>-82.987380999999999</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>-71.017892000000003</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38">
+      <c r="H38" s="2">
+        <v>39.040282249999997</v>
+      </c>
+      <c r="I38" s="1">
         <v>-78.032692821428498</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>125</v>
+      <c r="J38" s="4">
+        <v>2.5293581161051</v>
+      </c>
+      <c r="K38" s="4">
+        <v>3.26723054420393</v>
+      </c>
+      <c r="L38" s="4">
+        <v>107.747221378446</v>
+      </c>
+      <c r="M38" s="4">
+        <v>5.2890228692324399</v>
       </c>
       <c r="N38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>22</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>35.853391000000002</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>43.596552000000003</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>-89.387518999999998</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>-83.581648999999999</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I39">
+      <c r="H39" s="2">
+        <v>40.393089090909001</v>
+      </c>
+      <c r="I39" s="1">
         <v>-85.916173863636303</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>130</v>
+      <c r="J39" s="4">
+        <v>2.20713196982509</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.7163606485581899</v>
+      </c>
+      <c r="L39" s="4">
+        <v>44.955786155069902</v>
+      </c>
+      <c r="M39" s="4">
+        <v>3.6553894368859199</v>
       </c>
       <c r="N39" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>7</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>38.954099999999997</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>44.961849999999998</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>-96.688170999999997</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>-91.535123999999996</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="2">
+        <v>40.9381285714285</v>
+      </c>
+      <c r="I40" s="1">
         <v>-94.183978285714204</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>135</v>
+      <c r="J40" s="4">
+        <v>2.0281987467520302</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1.8832570494379199</v>
+      </c>
+      <c r="L40" s="4">
+        <v>30.958218114249998</v>
+      </c>
+      <c r="M40" s="4">
+        <v>3.95075931667902</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="B41" s="1">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>6</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>43.606650999999999</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>47.6218</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>-123.112172</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>-116.2261</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="2">
+        <v>45.713786833333302</v>
+      </c>
+      <c r="I41" s="1">
         <v>-119.75064949999999</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M41">
+      <c r="J41" s="4">
+        <v>1.4686211625171199</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2.97795533094973</v>
+      </c>
+      <c r="L41" s="4">
+        <v>27.648605104727999</v>
+      </c>
+      <c r="M41" s="3">
         <v>4.6794399083382299</v>
       </c>
       <c r="N41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C12 C2 C22 C32">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13 C3 C23 C33">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14 C4 C24 C34">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15 C25 C35 C5">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16 C6 C26 C36">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17 C7 C27 C37">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8 C18 C28 C38">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 C19 C29 C39">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 C20 C30 C40">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11 C21 C31 C41">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2 J12 J22 J32">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2 K12 K22 K32">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2 L12 L22 L32">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2 M12 M22 M32">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J13 J23 J33">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13 K3 K23 K33">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3 L13 L23 L33">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13 M3 M23 M33">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4 J14 J24 J34">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14 K4 K24 K34">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4 L14 L24 L34">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14 M4 M24 M34">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5 J15 J25 J35">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15 K5 K25 K35">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5 L15 L25 L35">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15 M5 M25 M35">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6 J16 J26 J36">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16 K6 K26 K36">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6 L16 L26 L36">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16 M6 M26 M36">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7 J17 J27 J37">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17 K7 K27 K37">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7 L17 L27 L37">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17 M7 M27 M37">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8 J18 J28 J38">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18 K8 K28 K38">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8 L18 L28 L38">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18 M8 M28 M38">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9 J19 J29 J39">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19 K9 K29 K39">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9 L19 L29 L39">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19 M9 M29 M39">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10 J20 J30 J40">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20 K10 K30 K40">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10 L20 L30 L40">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20 M10 M30 M40">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11 J21 J31 J41">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21 K11 K31 K41">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11 L21 L31 L41">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21 M11 M31 M41">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2 I12 I22 I32">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13 I3 I23 I33">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I14 I24 I34">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15 I5 I25 I35">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I16 I26 I36">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17 I7 I27 I37">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I18 I28 I38">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22 D2 D12 D32">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2 E12 E22 E32">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 F2 F22 F32">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2 G12 G22 G32">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12 H2 H22 H32">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 D13 D23 D33">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13 E3 E23 E33">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3 F13 F23 F33">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13 G3 G23 G33">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 H13 H23 H33">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D4 D24 D34">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4 E14 E24 E34">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14 F4 F24 F34">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 G14 G24 G34">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14 H4 H24 H34">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5 D15 D25 D35">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15 E5 E25 E35">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5 F15 F25 F35">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15 G5 G25 G35">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H15 H25 H35">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16 D6 D26 D36">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6 E16 E26 E36">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16 F6 F26 F36">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G16 G26 G36">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16 H6 H26 H36">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7 D17 D27 D37">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17 E7 E27 E37">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7 F17 F27 F37">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17 G7 G27 G37">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7 H17 H27 H37">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18 D8 D28 D38">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 E18 E28 E38">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18 F8 F28 F38">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 G18 G28 G38">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18 H8 H28 H38">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9 D19 D29 D39">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19 E9 E29 E39">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9 F19 F29 F39">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19 G9 G29 G39">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H19 H29 H39">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19 I9 I29 I39">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10 D20 D30 D40">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20 E10 E30 E40">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10 F20 F30 F40">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20 G10 G30 G40">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10 H20 H30 H40">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20 I10 I30 I40">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11 D21 D31 D41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 E11 E31 E41">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11 F21 F31 F41">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21 G11 G31 G41">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11 H21 H31 H41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21 I11 I31 I41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>